--- a/Code/Results/Cases/Case_5_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.54479428227877</v>
+        <v>15.8291344720034</v>
       </c>
       <c r="C2">
-        <v>13.67902403147337</v>
+        <v>11.81307979361696</v>
       </c>
       <c r="D2">
-        <v>4.546085688822187</v>
+        <v>5.239497140747471</v>
       </c>
       <c r="E2">
-        <v>7.640895980514752</v>
+        <v>12.73574010039485</v>
       </c>
       <c r="F2">
-        <v>19.36368049268573</v>
+        <v>25.9905995187379</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.154641494799868</v>
+        <v>9.876869094851987</v>
       </c>
       <c r="M2">
-        <v>12.37809559858117</v>
+        <v>14.88139831220174</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.42400535406947</v>
+        <v>23.25365463924796</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.09578739408688</v>
+        <v>15.28223480662601</v>
       </c>
       <c r="C3">
-        <v>13.17851820392103</v>
+        <v>11.61793548042841</v>
       </c>
       <c r="D3">
-        <v>4.445367517886216</v>
+        <v>5.208347467136297</v>
       </c>
       <c r="E3">
-        <v>7.784170932689256</v>
+        <v>12.78793604549684</v>
       </c>
       <c r="F3">
-        <v>18.94628132409288</v>
+        <v>26.04128224526768</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.073316129854678</v>
+        <v>9.884781208495243</v>
       </c>
       <c r="M3">
-        <v>11.76119990441983</v>
+        <v>14.7622182145003</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.35125015395934</v>
+        <v>23.34896619047711</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.15378992793545</v>
+        <v>14.93775673891458</v>
       </c>
       <c r="C4">
-        <v>12.86210150003743</v>
+        <v>11.49608816262069</v>
       </c>
       <c r="D4">
-        <v>4.382431402553689</v>
+        <v>5.189065526473319</v>
       </c>
       <c r="E4">
-        <v>7.874817370804423</v>
+        <v>12.8216558513349</v>
       </c>
       <c r="F4">
-        <v>18.71079143628408</v>
+        <v>26.08123352351214</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.025763071642911</v>
+        <v>9.890994933423979</v>
       </c>
       <c r="M4">
-        <v>11.36948437255345</v>
+        <v>14.69048682200412</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.32657048746366</v>
+        <v>23.41422011713684</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.75668125544379</v>
+        <v>14.79540284180091</v>
       </c>
       <c r="C5">
-        <v>12.73099866392118</v>
+        <v>11.44596846980529</v>
       </c>
       <c r="D5">
-        <v>4.356530214666167</v>
+        <v>5.181172078059125</v>
       </c>
       <c r="E5">
-        <v>7.912442981875806</v>
+        <v>12.8358184592356</v>
       </c>
       <c r="F5">
-        <v>18.62004252637307</v>
+        <v>26.09972578195552</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.006989296509913</v>
+        <v>9.893868387801396</v>
       </c>
       <c r="M5">
-        <v>11.20677768943172</v>
+        <v>14.66164327331013</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.32133321952983</v>
+        <v>23.44249747632652</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.68993972324679</v>
+        <v>14.77165212672969</v>
       </c>
       <c r="C6">
-        <v>12.70910273685104</v>
+        <v>11.43761930416894</v>
       </c>
       <c r="D6">
-        <v>4.352214630901815</v>
+        <v>5.179859304918526</v>
       </c>
       <c r="E6">
-        <v>7.918732539476824</v>
+        <v>12.83819564477867</v>
       </c>
       <c r="F6">
-        <v>18.60528784281177</v>
+        <v>26.10292970653524</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.003908581548824</v>
+        <v>9.894366148080387</v>
       </c>
       <c r="M6">
-        <v>11.17958009725643</v>
+        <v>14.6568779227443</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.32074844439716</v>
+        <v>23.44729452249911</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.14848808959646</v>
+        <v>14.93584461976255</v>
       </c>
       <c r="C7">
-        <v>12.86034196675253</v>
+        <v>11.49541405830688</v>
       </c>
       <c r="D7">
-        <v>4.382083090522389</v>
+        <v>5.188959213685567</v>
       </c>
       <c r="E7">
-        <v>7.87532200564782</v>
+        <v>12.82184514486044</v>
       </c>
       <c r="F7">
-        <v>18.70954648475436</v>
+        <v>26.08147397399742</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.025507427597578</v>
+        <v>9.891032303371183</v>
       </c>
       <c r="M7">
-        <v>11.3673022682326</v>
+        <v>14.69009622725587</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.32648062102654</v>
+        <v>23.4145946589984</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05597960373481</v>
+        <v>15.64248268655193</v>
       </c>
       <c r="C8">
-        <v>13.50841142352603</v>
+        <v>11.74624091424219</v>
       </c>
       <c r="D8">
-        <v>4.511597482239663</v>
+        <v>5.228791076715888</v>
       </c>
       <c r="E8">
-        <v>7.689750461505633</v>
+        <v>12.75339114463158</v>
       </c>
       <c r="F8">
-        <v>19.21544391161601</v>
+        <v>26.00623676707081</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.126110057168592</v>
+        <v>9.879316095015895</v>
       </c>
       <c r="M8">
-        <v>12.16817035371479</v>
+        <v>14.84001958004101</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.39464835994492</v>
+        <v>23.28511662115813</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.38555989422471</v>
+        <v>16.95123778871624</v>
       </c>
       <c r="C9">
-        <v>14.70220905452003</v>
+        <v>12.22016117634857</v>
       </c>
       <c r="D9">
-        <v>4.756040135893863</v>
+        <v>5.305519951005748</v>
       </c>
       <c r="E9">
-        <v>7.346415648784657</v>
+        <v>12.6323564086523</v>
       </c>
       <c r="F9">
-        <v>20.37209684821891</v>
+        <v>25.92912536055121</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.341998271176448</v>
+        <v>9.867077047695393</v>
       </c>
       <c r="M9">
-        <v>13.77405730638928</v>
+        <v>15.14440715931299</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69563947117217</v>
+        <v>23.08493323893276</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.5869540274429</v>
+        <v>17.85633472017368</v>
       </c>
       <c r="C10">
-        <v>15.52696614373571</v>
+        <v>12.55503191110303</v>
       </c>
       <c r="D10">
-        <v>4.928801828013707</v>
+        <v>5.360859205103387</v>
       </c>
       <c r="E10">
-        <v>7.105749360104673</v>
+        <v>12.55140038061518</v>
       </c>
       <c r="F10">
-        <v>21.32065525404875</v>
+        <v>25.91580649815187</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.511553648094499</v>
+        <v>9.864600721555163</v>
       </c>
       <c r="M10">
-        <v>14.95899850384011</v>
+        <v>15.37289493485605</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.02968778457932</v>
+        <v>22.97101314357237</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.53655243020901</v>
+        <v>18.25416794598631</v>
       </c>
       <c r="C11">
-        <v>15.88997302543891</v>
+        <v>12.70401346838595</v>
       </c>
       <c r="D11">
-        <v>5.005731568912226</v>
+        <v>5.38576952759386</v>
       </c>
       <c r="E11">
-        <v>6.998556744372316</v>
+        <v>12.51628437560361</v>
       </c>
       <c r="F11">
-        <v>21.77310470056749</v>
+        <v>25.91921473818762</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.590979379709269</v>
+        <v>9.864881343355657</v>
       </c>
       <c r="M11">
-        <v>15.47154966341605</v>
+        <v>15.4775734364145</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.20821242716911</v>
+        <v>22.92646853680093</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88879740383996</v>
+        <v>18.40270121067935</v>
       </c>
       <c r="C12">
-        <v>16.02563066276051</v>
+        <v>12.75991017815997</v>
       </c>
       <c r="D12">
-        <v>5.034611250713354</v>
+        <v>5.395161043943748</v>
       </c>
       <c r="E12">
-        <v>6.958275553168101</v>
+        <v>12.50323164513854</v>
       </c>
       <c r="F12">
-        <v>21.94740004122719</v>
+        <v>25.92186908058271</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.621378849505047</v>
+        <v>9.865189154930242</v>
       </c>
       <c r="M12">
-        <v>15.66187746005413</v>
+        <v>15.51729146619902</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.27978185187777</v>
+        <v>22.91065351360665</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81326019538283</v>
+        <v>18.37080782884127</v>
       </c>
       <c r="C13">
-        <v>15.99649537591441</v>
+        <v>12.74789549217636</v>
       </c>
       <c r="D13">
-        <v>5.02840289007617</v>
+        <v>5.393140314042954</v>
       </c>
       <c r="E13">
-        <v>6.966937333854031</v>
+        <v>12.50603190859895</v>
       </c>
       <c r="F13">
-        <v>21.90973138930261</v>
+        <v>25.92123674699792</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.614817534113157</v>
+        <v>9.865113911865768</v>
       </c>
       <c r="M13">
-        <v>15.62105361356185</v>
+        <v>15.50873442301016</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.26418952480515</v>
+        <v>22.9140126276652</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.56567846840414</v>
+        <v>18.26643093408263</v>
       </c>
       <c r="C14">
-        <v>15.90117010412817</v>
+        <v>12.70862273943074</v>
       </c>
       <c r="D14">
-        <v>5.008112635992024</v>
+        <v>5.38654302490515</v>
       </c>
       <c r="E14">
-        <v>6.995236677377653</v>
+        <v>12.51520561719956</v>
       </c>
       <c r="F14">
-        <v>21.78738497349105</v>
+        <v>25.91940577337889</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.593473933747394</v>
+        <v>9.864902632742973</v>
       </c>
       <c r="M14">
-        <v>15.48728321274831</v>
+        <v>15.48083964620824</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.21402021374809</v>
+        <v>22.92514628475451</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.41307387426846</v>
+        <v>18.20221803122669</v>
       </c>
       <c r="C15">
-        <v>15.84254414681677</v>
+        <v>12.68449833613824</v>
       </c>
       <c r="D15">
-        <v>4.995651099313868</v>
+        <v>5.382496487677439</v>
       </c>
       <c r="E15">
-        <v>7.012610686223675</v>
+        <v>12.52085664303408</v>
       </c>
       <c r="F15">
-        <v>21.71282869253871</v>
+        <v>25.91846189004623</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.580442184169251</v>
+        <v>9.864799440521779</v>
       </c>
       <c r="M15">
-        <v>15.40485617776927</v>
+        <v>15.46376270157288</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.18381065608435</v>
+        <v>22.93210329582386</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.5238615506085</v>
+        <v>17.83004519201769</v>
       </c>
       <c r="C16">
-        <v>15.50299282696113</v>
+        <v>12.54522491896453</v>
       </c>
       <c r="D16">
-        <v>4.923739708973778</v>
+        <v>5.359225644894494</v>
       </c>
       <c r="E16">
-        <v>7.112799112258934</v>
+        <v>12.55372963180709</v>
       </c>
       <c r="F16">
-        <v>21.29150377718703</v>
+        <v>25.91577449901318</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.506408516700938</v>
+        <v>9.864610630798111</v>
       </c>
       <c r="M16">
-        <v>14.92497279689112</v>
+        <v>15.36606644330315</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.0185681280724</v>
+        <v>22.97407125364056</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.96515803654769</v>
+        <v>17.59807987380626</v>
       </c>
       <c r="C17">
-        <v>15.29152741533678</v>
+        <v>12.45889931323005</v>
       </c>
       <c r="D17">
-        <v>4.879189178480921</v>
+        <v>5.344879641864935</v>
       </c>
       <c r="E17">
-        <v>7.174834437199237</v>
+        <v>12.57433363314799</v>
       </c>
       <c r="F17">
-        <v>21.03836294312074</v>
+        <v>25.91655276404819</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.461573448093922</v>
+        <v>9.864854656765811</v>
       </c>
       <c r="M17">
-        <v>14.62382624597549</v>
+        <v>15.30630238751044</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.92410935667663</v>
+        <v>23.00168605410845</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.63892180954262</v>
+        <v>17.46335734665413</v>
       </c>
       <c r="C18">
-        <v>15.16875413318472</v>
+        <v>12.40893362511776</v>
       </c>
       <c r="D18">
-        <v>4.85340927917447</v>
+        <v>5.336603582992676</v>
       </c>
       <c r="E18">
-        <v>7.210732015569437</v>
+        <v>12.58634565303536</v>
       </c>
       <c r="F18">
-        <v>20.89473741661207</v>
+        <v>25.91789143738086</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.436001831344616</v>
+        <v>9.865127510826795</v>
       </c>
       <c r="M18">
-        <v>14.44811885297194</v>
+        <v>15.27199882546466</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.87227172126953</v>
+        <v>23.01825405038185</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52762173288613</v>
+        <v>17.41752281989685</v>
       </c>
       <c r="C19">
-        <v>15.12699057601441</v>
+        <v>12.39196342849787</v>
       </c>
       <c r="D19">
-        <v>4.844654352755478</v>
+        <v>5.333797332199373</v>
       </c>
       <c r="E19">
-        <v>7.222924055228651</v>
+        <v>12.59044042810787</v>
       </c>
       <c r="F19">
-        <v>20.84644895227128</v>
+        <v>25.91849762919366</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.427381109597562</v>
+        <v>9.865242673938992</v>
       </c>
       <c r="M19">
-        <v>14.38819742639377</v>
+        <v>15.26039728935978</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.85514380619491</v>
+        <v>23.0239810842265</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02513778296372</v>
+        <v>17.62290865891223</v>
       </c>
       <c r="C20">
-        <v>15.31415709529885</v>
+        <v>12.46812154183095</v>
       </c>
       <c r="D20">
-        <v>4.883947865007062</v>
+        <v>5.346409371974207</v>
       </c>
       <c r="E20">
-        <v>7.16820839596926</v>
+        <v>12.57212363262138</v>
       </c>
       <c r="F20">
-        <v>21.06510624762076</v>
+        <v>25.916377675668</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.466323883558212</v>
+        <v>9.864814972381357</v>
       </c>
       <c r="M20">
-        <v>14.65614181992323</v>
+        <v>15.31265721047127</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.93390558221488</v>
+        <v>22.99867550046278</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.63859776584092</v>
+        <v>18.29714730171771</v>
       </c>
       <c r="C21">
-        <v>15.92921880740028</v>
+        <v>12.72017248123846</v>
       </c>
       <c r="D21">
-        <v>5.014079309051072</v>
+        <v>5.388481962625242</v>
       </c>
       <c r="E21">
-        <v>6.98691620544301</v>
+        <v>12.51250443811944</v>
       </c>
       <c r="F21">
-        <v>21.82324104642753</v>
+        <v>25.91990655238287</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.599734362451009</v>
+        <v>9.864959227358318</v>
       </c>
       <c r="M21">
-        <v>15.52667660117124</v>
+        <v>15.48903110611902</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.22864742351625</v>
+        <v>22.92184743039038</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.65031346181277</v>
+        <v>18.72541353469969</v>
       </c>
       <c r="C22">
-        <v>16.32065874219323</v>
+        <v>12.8818592054343</v>
       </c>
       <c r="D22">
-        <v>5.097654403783832</v>
+        <v>5.415735415949004</v>
       </c>
       <c r="E22">
-        <v>6.870230737756336</v>
+        <v>12.47496701296451</v>
       </c>
       <c r="F22">
-        <v>22.33597592729371</v>
+        <v>25.93016169913721</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.688803964615789</v>
+        <v>9.866227848147263</v>
       </c>
       <c r="M22">
-        <v>16.07370519985306</v>
+        <v>15.6047467754379</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.44445365821072</v>
+        <v>22.87777660556693</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11421955378946</v>
+        <v>18.49800877429065</v>
       </c>
       <c r="C23">
-        <v>16.11271878094118</v>
+        <v>12.7958541815183</v>
       </c>
       <c r="D23">
-        <v>5.053187492783808</v>
+        <v>5.401213173570605</v>
       </c>
       <c r="E23">
-        <v>6.932349732752884</v>
+        <v>12.49487123310018</v>
       </c>
       <c r="F23">
-        <v>22.06075601403288</v>
+        <v>25.92396062076341</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.64109612301354</v>
+        <v>9.865443591728344</v>
       </c>
       <c r="M23">
-        <v>15.78373501686753</v>
+        <v>15.54295551341092</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.32710845679943</v>
+        <v>22.9007341058205</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.99803661526762</v>
+        <v>17.61168780012354</v>
       </c>
       <c r="C24">
-        <v>15.30392994738199</v>
+        <v>12.46395321586101</v>
       </c>
       <c r="D24">
-        <v>4.881796982616664</v>
+        <v>5.345717869014928</v>
       </c>
       <c r="E24">
-        <v>7.171203303177684</v>
+        <v>12.57312225511605</v>
       </c>
       <c r="F24">
-        <v>21.05300965121294</v>
+        <v>25.91645405713724</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.464175573647378</v>
+        <v>9.864832500720434</v>
       </c>
       <c r="M24">
-        <v>14.64153997037415</v>
+        <v>15.30978401974059</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.92946903269508</v>
+        <v>23.00003441705043</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.52824290465933</v>
+        <v>16.60647758000777</v>
       </c>
       <c r="C25">
-        <v>14.38811466499196</v>
+        <v>12.09412687057527</v>
       </c>
       <c r="D25">
-        <v>4.691044091552402</v>
+        <v>5.284930391728269</v>
       </c>
       <c r="E25">
-        <v>7.437190851523103</v>
+        <v>12.66369440177342</v>
       </c>
       <c r="F25">
-        <v>20.0416847534087</v>
+        <v>25.94239966343737</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.281643076902914</v>
+        <v>9.869241386743608</v>
       </c>
       <c r="M25">
-        <v>13.31394554546995</v>
+        <v>15.06110139386856</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.59512204866914</v>
+        <v>23.13329408955568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.8291344720034</v>
+        <v>21.54479428227864</v>
       </c>
       <c r="C2">
-        <v>11.81307979361696</v>
+        <v>13.67902403147362</v>
       </c>
       <c r="D2">
-        <v>5.239497140747471</v>
+        <v>4.546085688822187</v>
       </c>
       <c r="E2">
-        <v>12.73574010039485</v>
+        <v>7.640895980514887</v>
       </c>
       <c r="F2">
-        <v>25.9905995187379</v>
+        <v>19.36368049268588</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.876869094851987</v>
+        <v>6.154641494799861</v>
       </c>
       <c r="M2">
-        <v>14.88139831220174</v>
+        <v>12.37809559858122</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.25365463924796</v>
+        <v>15.42400535406958</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.28223480662601</v>
+        <v>20.09578739408688</v>
       </c>
       <c r="C3">
-        <v>11.61793548042841</v>
+        <v>13.17851820392123</v>
       </c>
       <c r="D3">
-        <v>5.208347467136297</v>
+        <v>4.445367517886097</v>
       </c>
       <c r="E3">
-        <v>12.78793604549684</v>
+        <v>7.784170932689389</v>
       </c>
       <c r="F3">
-        <v>26.04128224526768</v>
+        <v>18.94628132409291</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.884781208495243</v>
+        <v>6.073316129854669</v>
       </c>
       <c r="M3">
-        <v>14.7622182145003</v>
+        <v>11.76119990441984</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.34896619047711</v>
+        <v>15.35125015395934</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.93775673891458</v>
+        <v>19.15378992793545</v>
       </c>
       <c r="C4">
-        <v>11.49608816262069</v>
+        <v>12.86210150003743</v>
       </c>
       <c r="D4">
-        <v>5.189065526473319</v>
+        <v>4.382431402553791</v>
       </c>
       <c r="E4">
-        <v>12.8216558513349</v>
+        <v>7.874817370804357</v>
       </c>
       <c r="F4">
-        <v>26.08123352351214</v>
+        <v>18.7107914362841</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.890994933423979</v>
+        <v>6.025763071642889</v>
       </c>
       <c r="M4">
-        <v>14.69048682200412</v>
+        <v>11.36948437255344</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.41422011713684</v>
+        <v>15.32657048746372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.79540284180091</v>
+        <v>18.7566812554438</v>
       </c>
       <c r="C5">
-        <v>11.44596846980529</v>
+        <v>12.73099866392106</v>
       </c>
       <c r="D5">
-        <v>5.181172078059125</v>
+        <v>4.356530214666115</v>
       </c>
       <c r="E5">
-        <v>12.8358184592356</v>
+        <v>7.91244298187567</v>
       </c>
       <c r="F5">
-        <v>26.09972578195552</v>
+        <v>18.62004252637307</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.893868387801396</v>
+        <v>6.006989296509829</v>
       </c>
       <c r="M5">
-        <v>14.66164327331013</v>
+        <v>11.2067776894317</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.44249747632652</v>
+        <v>15.32133321952983</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77165212672969</v>
+        <v>18.68993972324674</v>
       </c>
       <c r="C6">
-        <v>11.43761930416894</v>
+        <v>12.70910273685116</v>
       </c>
       <c r="D6">
-        <v>5.179859304918526</v>
+        <v>4.352214630902118</v>
       </c>
       <c r="E6">
-        <v>12.83819564477867</v>
+        <v>7.918732539476824</v>
       </c>
       <c r="F6">
-        <v>26.10292970653524</v>
+        <v>18.60528784281165</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.894366148080387</v>
+        <v>6.00390858154878</v>
       </c>
       <c r="M6">
-        <v>14.6568779227443</v>
+        <v>11.17958009725643</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.44729452249911</v>
+        <v>15.32074844439716</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.93584461976255</v>
+        <v>19.14848808959648</v>
       </c>
       <c r="C7">
-        <v>11.49541405830688</v>
+        <v>12.86034196675264</v>
       </c>
       <c r="D7">
-        <v>5.188959213685567</v>
+        <v>4.382083090522341</v>
       </c>
       <c r="E7">
-        <v>12.82184514486044</v>
+        <v>7.875322005647815</v>
       </c>
       <c r="F7">
-        <v>26.08147397399742</v>
+        <v>18.70954648475423</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.891032303371183</v>
+        <v>6.025507427597543</v>
       </c>
       <c r="M7">
-        <v>14.69009622725587</v>
+        <v>11.36730226823262</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.4145946589984</v>
+        <v>15.32648062102638</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.64248268655193</v>
+        <v>21.05597960373478</v>
       </c>
       <c r="C8">
-        <v>11.74624091424219</v>
+        <v>13.50841142352596</v>
       </c>
       <c r="D8">
-        <v>5.228791076715888</v>
+        <v>4.511597482239656</v>
       </c>
       <c r="E8">
-        <v>12.75339114463158</v>
+        <v>7.689750461505568</v>
       </c>
       <c r="F8">
-        <v>26.00623676707081</v>
+        <v>19.21544391161605</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.879316095015895</v>
+        <v>6.126110057168562</v>
       </c>
       <c r="M8">
-        <v>14.84001958004101</v>
+        <v>12.16817035371479</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.28511662115813</v>
+        <v>15.39464835994502</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.95123778871624</v>
+        <v>24.3855598942247</v>
       </c>
       <c r="C9">
-        <v>12.22016117634857</v>
+        <v>14.70220905451981</v>
       </c>
       <c r="D9">
-        <v>5.305519951005748</v>
+        <v>4.756040135893898</v>
       </c>
       <c r="E9">
-        <v>12.6323564086523</v>
+        <v>7.346415648784594</v>
       </c>
       <c r="F9">
-        <v>25.92912536055121</v>
+        <v>20.37209684821894</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.867077047695393</v>
+        <v>6.34199827117647</v>
       </c>
       <c r="M9">
-        <v>15.14440715931299</v>
+        <v>13.77405730638927</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.08493323893276</v>
+        <v>15.6956394711722</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.85633472017368</v>
+        <v>26.58695402744286</v>
       </c>
       <c r="C10">
-        <v>12.55503191110303</v>
+        <v>15.52696614373574</v>
       </c>
       <c r="D10">
-        <v>5.360859205103387</v>
+        <v>4.928801828013748</v>
       </c>
       <c r="E10">
-        <v>12.55140038061518</v>
+        <v>7.105749360104606</v>
       </c>
       <c r="F10">
-        <v>25.91580649815187</v>
+        <v>21.32065525404883</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.864600721555163</v>
+        <v>6.511553648094481</v>
       </c>
       <c r="M10">
-        <v>15.37289493485605</v>
+        <v>14.95899850384009</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.97101314357237</v>
+        <v>16.02968778457942</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.25416794598631</v>
+        <v>27.53655243020898</v>
       </c>
       <c r="C11">
-        <v>12.70401346838595</v>
+        <v>15.88997302543891</v>
       </c>
       <c r="D11">
-        <v>5.38576952759386</v>
+        <v>5.005731568912316</v>
       </c>
       <c r="E11">
-        <v>12.51628437560361</v>
+        <v>6.998556744372316</v>
       </c>
       <c r="F11">
-        <v>25.91921473818762</v>
+        <v>21.77310470056753</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.864881343355657</v>
+        <v>6.590979379709267</v>
       </c>
       <c r="M11">
-        <v>15.4775734364145</v>
+        <v>15.47154966341603</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.92646853680093</v>
+        <v>16.20821242716917</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.40270121067935</v>
+        <v>27.88879740384001</v>
       </c>
       <c r="C12">
-        <v>12.75991017815997</v>
+        <v>16.02563066276045</v>
       </c>
       <c r="D12">
-        <v>5.395161043943748</v>
+        <v>5.034611250713414</v>
       </c>
       <c r="E12">
-        <v>12.50323164513854</v>
+        <v>6.958275553168169</v>
       </c>
       <c r="F12">
-        <v>25.92186908058271</v>
+        <v>21.9474000412271</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.865189154930242</v>
+        <v>6.621378849505118</v>
       </c>
       <c r="M12">
-        <v>15.51729146619902</v>
+        <v>15.66187746005415</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.91065351360665</v>
+        <v>16.27978185187768</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.37080782884127</v>
+        <v>27.81326019538292</v>
       </c>
       <c r="C13">
-        <v>12.74789549217636</v>
+        <v>15.99649537591424</v>
       </c>
       <c r="D13">
-        <v>5.393140314042954</v>
+        <v>5.028402890076193</v>
       </c>
       <c r="E13">
-        <v>12.50603190859895</v>
+        <v>6.966937333854164</v>
       </c>
       <c r="F13">
-        <v>25.92123674699792</v>
+        <v>21.90973138930259</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.865113911865768</v>
+        <v>6.614817534113227</v>
       </c>
       <c r="M13">
-        <v>15.50873442301016</v>
+        <v>15.62105361356185</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.9140126276652</v>
+        <v>16.26418952480508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.26643093408263</v>
+        <v>27.56567846840412</v>
       </c>
       <c r="C14">
-        <v>12.70862273943074</v>
+        <v>15.90117010412817</v>
       </c>
       <c r="D14">
-        <v>5.38654302490515</v>
+        <v>5.008112635992135</v>
       </c>
       <c r="E14">
-        <v>12.51520561719956</v>
+        <v>6.995236677377719</v>
       </c>
       <c r="F14">
-        <v>25.91940577337889</v>
+        <v>21.78738497349104</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.864902632742973</v>
+        <v>6.593473933747436</v>
       </c>
       <c r="M14">
-        <v>15.48083964620824</v>
+        <v>15.48728321274829</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.92514628475451</v>
+        <v>16.21402021374809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.20221803122669</v>
+        <v>27.41307387426844</v>
       </c>
       <c r="C15">
-        <v>12.68449833613824</v>
+        <v>15.84254414681682</v>
       </c>
       <c r="D15">
-        <v>5.382496487677439</v>
+        <v>4.995651099313868</v>
       </c>
       <c r="E15">
-        <v>12.52085664303408</v>
+        <v>7.012610686223675</v>
       </c>
       <c r="F15">
-        <v>25.91846189004623</v>
+        <v>21.71282869253874</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.864799440521779</v>
+        <v>6.58044218416922</v>
       </c>
       <c r="M15">
-        <v>15.46376270157288</v>
+        <v>15.40485617776926</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.93210329582386</v>
+        <v>16.18381065608439</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.83004519201769</v>
+        <v>26.52386155060849</v>
       </c>
       <c r="C16">
-        <v>12.54522491896453</v>
+        <v>15.50299282696095</v>
       </c>
       <c r="D16">
-        <v>5.359225644894494</v>
+        <v>4.923739708973873</v>
       </c>
       <c r="E16">
-        <v>12.55372963180709</v>
+        <v>7.112799112258866</v>
       </c>
       <c r="F16">
-        <v>25.91577449901318</v>
+        <v>21.29150377718704</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.864610630798111</v>
+        <v>6.506408516700953</v>
       </c>
       <c r="M16">
-        <v>15.36606644330315</v>
+        <v>14.92497279689112</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.97407125364056</v>
+        <v>16.01856812807242</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.59807987380626</v>
+        <v>25.96515803654765</v>
       </c>
       <c r="C17">
-        <v>12.45889931323005</v>
+        <v>15.29152741533688</v>
       </c>
       <c r="D17">
-        <v>5.344879641864935</v>
+        <v>4.879189178480752</v>
       </c>
       <c r="E17">
-        <v>12.57433363314799</v>
+        <v>7.174834437199172</v>
       </c>
       <c r="F17">
-        <v>25.91655276404819</v>
+        <v>21.03836294312085</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.864854656765811</v>
+        <v>6.461573448093838</v>
       </c>
       <c r="M17">
-        <v>15.30630238751044</v>
+        <v>14.6238262459755</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.00168605410845</v>
+        <v>15.92410935667671</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.46335734665413</v>
+        <v>25.63892180954267</v>
       </c>
       <c r="C18">
-        <v>12.40893362511776</v>
+        <v>15.16875413318469</v>
       </c>
       <c r="D18">
-        <v>5.336603582992676</v>
+        <v>4.853409279174451</v>
       </c>
       <c r="E18">
-        <v>12.58634565303536</v>
+        <v>7.210732015569368</v>
       </c>
       <c r="F18">
-        <v>25.91789143738086</v>
+        <v>20.89473741661195</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.865127510826795</v>
+        <v>6.436001831344637</v>
       </c>
       <c r="M18">
-        <v>15.27199882546466</v>
+        <v>14.44811885297197</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.01825405038185</v>
+        <v>15.87227172126943</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.41752281989685</v>
+        <v>25.52762173288616</v>
       </c>
       <c r="C19">
-        <v>12.39196342849787</v>
+        <v>15.12699057601429</v>
       </c>
       <c r="D19">
-        <v>5.333797332199373</v>
+        <v>4.844654352755576</v>
       </c>
       <c r="E19">
-        <v>12.59044042810787</v>
+        <v>7.222924055228582</v>
       </c>
       <c r="F19">
-        <v>25.91849762919366</v>
+        <v>20.8464489522713</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.865242673938992</v>
+        <v>6.427381109597532</v>
       </c>
       <c r="M19">
-        <v>15.26039728935978</v>
+        <v>14.38819742639378</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.0239810842265</v>
+        <v>15.85514380619493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.62290865891223</v>
+        <v>26.02513778296372</v>
       </c>
       <c r="C20">
-        <v>12.46812154183095</v>
+        <v>15.31415709529885</v>
       </c>
       <c r="D20">
-        <v>5.346409371974207</v>
+        <v>4.883947865006942</v>
       </c>
       <c r="E20">
-        <v>12.57212363262138</v>
+        <v>7.168208395969193</v>
       </c>
       <c r="F20">
-        <v>25.916377675668</v>
+        <v>21.06510624762081</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.864814972381357</v>
+        <v>6.466323883558174</v>
       </c>
       <c r="M20">
-        <v>15.31265721047127</v>
+        <v>14.65614181992325</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.99867550046278</v>
+        <v>15.93390558221489</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.29714730171771</v>
+        <v>27.63859776584093</v>
       </c>
       <c r="C21">
-        <v>12.72017248123846</v>
+        <v>15.92921880740038</v>
       </c>
       <c r="D21">
-        <v>5.388481962625242</v>
+        <v>5.014079309051136</v>
       </c>
       <c r="E21">
-        <v>12.51250443811944</v>
+        <v>6.986916205443011</v>
       </c>
       <c r="F21">
-        <v>25.91990655238287</v>
+        <v>21.82324104642747</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.864959227358318</v>
+        <v>6.599734362450964</v>
       </c>
       <c r="M21">
-        <v>15.48903110611902</v>
+        <v>15.52667660117126</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.92184743039038</v>
+        <v>16.22864742351617</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.72541353469969</v>
+        <v>28.65031346181279</v>
       </c>
       <c r="C22">
-        <v>12.8818592054343</v>
+        <v>16.32065874219326</v>
       </c>
       <c r="D22">
-        <v>5.415735415949004</v>
+        <v>5.097654403783937</v>
       </c>
       <c r="E22">
-        <v>12.47496701296451</v>
+        <v>6.870230737756335</v>
       </c>
       <c r="F22">
-        <v>25.93016169913721</v>
+        <v>22.33597592729362</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.866227848147263</v>
+        <v>6.688803964615772</v>
       </c>
       <c r="M22">
-        <v>15.6047467754379</v>
+        <v>16.07370519985304</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.87777660556693</v>
+        <v>16.44445365821065</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.49800877429065</v>
+        <v>28.11421955378947</v>
       </c>
       <c r="C23">
-        <v>12.7958541815183</v>
+        <v>16.11271878094107</v>
       </c>
       <c r="D23">
-        <v>5.401213173570605</v>
+        <v>5.053187492783994</v>
       </c>
       <c r="E23">
-        <v>12.49487123310018</v>
+        <v>6.932349732752884</v>
       </c>
       <c r="F23">
-        <v>25.92396062076341</v>
+        <v>22.06075601403283</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.865443591728344</v>
+        <v>6.641096123013579</v>
       </c>
       <c r="M23">
-        <v>15.54295551341092</v>
+        <v>15.78373501686753</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.9007341058205</v>
+        <v>16.32710845679941</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.61168780012354</v>
+        <v>25.99803661526759</v>
       </c>
       <c r="C24">
-        <v>12.46395321586101</v>
+        <v>15.3039299473819</v>
       </c>
       <c r="D24">
-        <v>5.345717869014928</v>
+        <v>4.881796982616562</v>
       </c>
       <c r="E24">
-        <v>12.57312225511605</v>
+        <v>7.171203303177687</v>
       </c>
       <c r="F24">
-        <v>25.91645405713724</v>
+        <v>21.05300965121294</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.864832500720434</v>
+        <v>6.464175573647448</v>
       </c>
       <c r="M24">
-        <v>15.30978401974059</v>
+        <v>14.64153997037412</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.00003441705043</v>
+        <v>15.92946903269509</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.60647758000777</v>
+        <v>23.52824290465938</v>
       </c>
       <c r="C25">
-        <v>12.09412687057527</v>
+        <v>14.38811466499185</v>
       </c>
       <c r="D25">
-        <v>5.284930391728269</v>
+        <v>4.691044091552488</v>
       </c>
       <c r="E25">
-        <v>12.66369440177342</v>
+        <v>7.437190851522971</v>
       </c>
       <c r="F25">
-        <v>25.94239966343737</v>
+        <v>20.04168475340871</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.869241386743608</v>
+        <v>6.281643076902893</v>
       </c>
       <c r="M25">
-        <v>15.06110139386856</v>
+        <v>13.31394554546999</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.13329408955568</v>
+        <v>15.59512204866923</v>
       </c>
     </row>
   </sheetData>
